--- a/双一流高校课程开设情况.xlsx
+++ b/双一流高校课程开设情况.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18178\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18178\Desktop\管理研究方法论\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB0C818-074D-4EAE-945A-B552D0FC8B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C7662-C57D-4AB0-B899-5E38AD190211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="124">
   <si>
     <t>序号</t>
   </si>
@@ -418,6 +418,59 @@
   </si>
   <si>
     <t>课程报告、期末考试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同济大学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理研究方法论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济与管理学院</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州大学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商学院</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例讨论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例讨论、个人汇报</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>《管理学研究方法》</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40/61</t>
+  </si>
+  <si>
+    <t>40/62</t>
+  </si>
+  <si>
+    <t>40/63</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -594,6 +647,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
@@ -1892,6 +1954,173 @@
         <v>24</v>
       </c>
       <c r="R18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>32</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="16">
+        <v>60</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>32</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="16">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>32</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="16">
+        <v>60</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
